--- a/medicine/Enfance/Sophie_Braganti/Sophie_Braganti.xlsx
+++ b/medicine/Enfance/Sophie_Braganti/Sophie_Braganti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Braganti est une écrivaine, poétesse et critique d'art française, née le 28 janvier 1963 à Nice[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Braganti est une écrivaine, poétesse et critique d'art française, née le 28 janvier 1963 à Nice.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Braganti est critique d'art pour l'Association internationale des critiques d'art[2]. Elle est membre de la revue Dada à sa création en 1991, participant aux numéros 2 à 93. Elle a collaboré avec la revue Verso arts et lettres de Jean-Luc Chalumeau[3]. Elle a écrit pour de nombreux artistes dans le site de l'AICA ( Gérald Thupinier, Gregory Forstner, Natacha Lesueur, Eric bourret, Favret &amp; Manez...) dans des catalogues d'expositions ou dans des livres d'artistes.
-En 2007 elle embarque sur le Marion Dufresne avec des paléoclimatologues dans les canaux de la Patagonie chilienne d'où elle rapporte des textes[4], des photographies et une vidéo[5]. De 2006 à 2008 elle coorganise avec la Ville de Nice un festival de poésie où elle met en relation un poète avec un artiste, pour les scènes du Théâtre de la Photographie et de l'Image et de la bibliothèque municipale à vocation régionale de Nice[6].
-Elle lit en public et est intervenante en ateliers d'écritures poétiques depuis 1999 (enfants, adolescents, adultes, séniors) dans différentes structures (médiathèques, bibliothèques, établissements scolaires, maisons de retraite, librairies, EPAHD, musées, centres d'art, maison d'arrêt)[7],[8],[9]. 
-Elle pratique la photographie et la vidéo, lesquelles accompagnent livres et lectures. Le musicien Eric Caligaris partage ses lectures avec des ponctuations sonores[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Braganti est critique d'art pour l'Association internationale des critiques d'art. Elle est membre de la revue Dada à sa création en 1991, participant aux numéros 2 à 93. Elle a collaboré avec la revue Verso arts et lettres de Jean-Luc Chalumeau. Elle a écrit pour de nombreux artistes dans le site de l'AICA ( Gérald Thupinier, Gregory Forstner, Natacha Lesueur, Eric bourret, Favret &amp; Manez...) dans des catalogues d'expositions ou dans des livres d'artistes.
+En 2007 elle embarque sur le Marion Dufresne avec des paléoclimatologues dans les canaux de la Patagonie chilienne d'où elle rapporte des textes, des photographies et une vidéo. De 2006 à 2008 elle coorganise avec la Ville de Nice un festival de poésie où elle met en relation un poète avec un artiste, pour les scènes du Théâtre de la Photographie et de l'Image et de la bibliothèque municipale à vocation régionale de Nice.
+Elle lit en public et est intervenante en ateliers d'écritures poétiques depuis 1999 (enfants, adolescents, adultes, séniors) dans différentes structures (médiathèques, bibliothèques, établissements scolaires, maisons de retraite, librairies, EPAHD, musées, centres d'art, maison d'arrêt). 
+Elle pratique la photographie et la vidéo, lesquelles accompagnent livres et lectures. Le musicien Eric Caligaris partage ses lectures avec des ponctuations sonores.
 Ses poèmes et ses textes s'inscrivent dans une pratique de l'écriture contemporaine où la mémoire restée vive réactive l'enfance, les gestes et les objets du quotidien. La marche conditionne le regard posé sur les paysages extérieurs comme sur les paysages intérieurs. Sophie Braganti croise sans cesse les questions des enjeux sociaux-politiques avec les relations humaines d'hier et d'aujourd'hui.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Silvia Baci  (ill. Claude Goiran), L'Amourier, coll. « Thoth », 2000, 80 p. (ISBN 978-2-911718-49-6)
 Les Moulins, Belem, 2005, 91 p. (ISBN 978-2-915577-27-3)
@@ -589,7 +605,9 @@
           <t>Livres jeunesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’univers de J.Bosch, Matisse, Van Gogh, Cézanne, Modigliani, Douanier Rousseau, Magritte, Michel-Ange, Flammarion, coll. « Grattage-coloriage », 1996
 Minette et le lézard  (ill. E.Mazet et A.Chéchille), éd. Grandir, 2000
@@ -624,14 +642,16 @@
           <t>Livres d'artistes et bibliophilie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les yeux bandés, courir, 1991. Livre unique, calligraphie de Frank Lalou
 Cinq petites façons de se sentir, 1992. Livre unique, calligraphies de Frank Lalou
 Les algues ont la peau dure, lavis de Patrick Lanneau, éd. Yéo, Area, Alin Avila, 1994
 Simples histories de feu, manières noires de Albert Woda, éd. de l'Eau, 1994
 Elle m’apostrophe, gravures de Gérard Serée, éd. Yéo Alin Avila et Gérard Serée, 1999
-Suite napolitaine[11], lithographies de Patrice Giorda, éd. de l'URDLA, 1999
+Suite napolitaine, lithographies de Patrice Giorda, éd. de l'URDLA, 1999
 Les ventres de Soledad, avec Gilbert Lascault, manières noires de Albert Woda, éd. de l'eau, 2001
 Una poesia, illustré par Frédérique Nalbandian et Patrick Lanneau, éd. Pulcinoelefante, 2005
 Ile de papier, avec des œuvres de Leonardo Rosa. 2000
@@ -666,7 +686,9 @@
           <t>Catalogues d'expositions, expositions et commissariats</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Martin Caminiti in catalogue Ciac Carros, Jaqueline Gainon, Michel Houssin, Frédérique Nalbandian, Luc Boniface, Patrick Lanneau in catalogues Galerie de la Marine, Nice, Patrick Lanneau in monographie Ramsay éd.Paris 1993, Benjamin Lévesque in Area éd.Paris, Christine Jean in Area éditions, Eleonore Bak, carte postale sonore CD éd. Esch-sur Azette, Luxembourg, Claudie Guyennon-Duchêne, Espace Saint-Cyprien, Toulouse), Sophie Menuet (Villa Tamaris et tiré à part revue Alliages 2012), Frédérique Nalbandian et Patrick Lanneau, (CIAC Carros 2012), Sophie Menuet in Il n'y a guèr(r)e plus de cent ans, Villes de Brignoles 2014, Les savonnières, éditions Plaines Page 2017, Frédérique Nalbandian, Pavillon de Vendôme 2020... 
 Ses textes font partie des expositions :
@@ -703,7 +725,9 @@
           <t>Œuvres collectives</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Être femmes, anthologie (poèmes de femmes Québec-France) éd. Le Temps des Cerises, 1999
 111 rumeurs de villes, éd. Certu, Lyon, 2005
